--- a/data/Output/和古屋/店舗情報まとめ.xlsx
+++ b/data/Output/和古屋/店舗情報まとめ.xlsx
@@ -1833,7 +1833,7 @@
         <v>6392.575187969925</v>
       </c>
       <c r="H2" t="n">
-        <v>1700425</v>
+        <v>3196.287593984962</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1859,7 +1859,7 @@
         <v>6123.631123919308</v>
       </c>
       <c r="H3" t="n">
-        <v>1062450</v>
+        <v>3061.815561959654</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1885,7 +1885,7 @@
         <v>6945.042372881356</v>
       </c>
       <c r="H4" t="n">
-        <v>819515</v>
+        <v>3472.521186440678</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1911,7 +1911,7 @@
         <v>9829.523809523809</v>
       </c>
       <c r="H5" t="n">
-        <v>481646.6666666667</v>
+        <v>3276.507936507936</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1937,7 +1937,7 @@
         <v>8421.157024793389</v>
       </c>
       <c r="H6" t="n">
-        <v>339653.3333333333</v>
+        <v>2807.052341597796</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1989,7 +1989,7 @@
         <v>7995.666666666667</v>
       </c>
       <c r="H8" t="n">
-        <v>179902.5</v>
+        <v>1998.916666666667</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2015,7 +2015,7 @@
         <v>10138.48837209302</v>
       </c>
       <c r="H9" t="n">
-        <v>217977.5</v>
+        <v>2534.622093023256</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2041,7 +2041,7 @@
         <v>9545.90909090909</v>
       </c>
       <c r="H10" t="n">
-        <v>126006</v>
+        <v>1909.181818181818</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2067,7 +2067,7 @@
         <v>8237.936507936507</v>
       </c>
       <c r="H11" t="n">
-        <v>172996.6666666667</v>
+        <v>2745.978835978836</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2093,7 +2093,7 @@
         <v>8872.105263157895</v>
       </c>
       <c r="H12" t="n">
-        <v>168570</v>
+        <v>2957.368421052632</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2119,7 +2119,7 @@
         <v>9283.157894736842</v>
       </c>
       <c r="H13" t="n">
-        <v>132285</v>
+        <v>2320.78947368421</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2145,7 +2145,7 @@
         <v>12099.7619047619</v>
       </c>
       <c r="H14" t="n">
-        <v>84698.33333333333</v>
+        <v>2016.626984126984</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2171,7 +2171,7 @@
         <v>14620.28571428571</v>
       </c>
       <c r="H15" t="n">
-        <v>73101.42857142857</v>
+        <v>2088.612244897959</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2197,7 +2197,7 @@
         <v>14230.88235294118</v>
       </c>
       <c r="H16" t="n">
-        <v>60481.25</v>
+        <v>1778.860294117647</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2223,7 +2223,7 @@
         <v>13568.78787878788</v>
       </c>
       <c r="H17" t="n">
-        <v>74628.33333333333</v>
+        <v>2261.464646464646</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2249,7 +2249,7 @@
         <v>13512.59259259259</v>
       </c>
       <c r="H18" t="n">
-        <v>72968</v>
+        <v>2702.518518518519</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2275,7 +2275,7 @@
         <v>10764.34782608696</v>
       </c>
       <c r="H19" t="n">
-        <v>49516</v>
+        <v>2152.869565217391</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2301,7 +2301,7 @@
         <v>9817.727272727272</v>
       </c>
       <c r="H20" t="n">
-        <v>53997.5</v>
+        <v>2454.431818181818</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2327,7 +2327,7 @@
         <v>25395</v>
       </c>
       <c r="H21" t="n">
-        <v>69836.25</v>
+        <v>3174.375</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2353,7 +2353,7 @@
         <v>16869.09090909091</v>
       </c>
       <c r="H22" t="n">
-        <v>41235.55555555555</v>
+        <v>1874.343434343434</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2379,7 +2379,7 @@
         <v>601.1764705882352</v>
       </c>
       <c r="H23" t="n">
-        <v>10220</v>
+        <v>601.1764705882352</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2405,7 +2405,7 @@
         <v>9788.125</v>
       </c>
       <c r="H24" t="n">
-        <v>10440.66666666667</v>
+        <v>652.5416666666666</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2431,7 +2431,7 @@
         <v>13874.375</v>
       </c>
       <c r="H25" t="n">
-        <v>36998.33333333334</v>
+        <v>2312.395833333333</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2457,7 +2457,7 @@
         <v>13572.85714285714</v>
       </c>
       <c r="H26" t="n">
-        <v>38004</v>
+        <v>2714.571428571428</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2483,7 +2483,7 @@
         <v>18812.14285714286</v>
       </c>
       <c r="H27" t="n">
-        <v>37624.28571428572</v>
+        <v>2687.448979591837</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2509,7 +2509,7 @@
         <v>12393.33333333333</v>
       </c>
       <c r="H28" t="n">
-        <v>37180</v>
+        <v>3098.333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2535,7 +2535,7 @@
         <v>17034.16666666667</v>
       </c>
       <c r="H29" t="n">
-        <v>15723.84615384615</v>
+        <v>1310.320512820513</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2561,7 +2561,7 @@
         <v>22997.27272727273</v>
       </c>
       <c r="H30" t="n">
-        <v>21080.83333333333</v>
+        <v>1916.439393939394</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2587,7 +2587,7 @@
         <v>11657.27272727273</v>
       </c>
       <c r="H31" t="n">
-        <v>12823</v>
+        <v>1165.727272727273</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2613,7 +2613,7 @@
         <v>15608</v>
       </c>
       <c r="H32" t="n">
-        <v>14189.09090909091</v>
+        <v>1418.909090909091</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2639,7 +2639,7 @@
         <v>15329</v>
       </c>
       <c r="H33" t="n">
-        <v>21898.57142857143</v>
+        <v>2189.857142857143</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2665,7 +2665,7 @@
         <v>11933.75</v>
       </c>
       <c r="H34" t="n">
-        <v>15911.66666666667</v>
+        <v>1988.958333333333</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2691,7 +2691,7 @@
         <v>15681.42857142857</v>
       </c>
       <c r="H35" t="n">
-        <v>18295</v>
+        <v>2613.571428571428</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2717,7 +2717,7 @@
         <v>13124.28571428571</v>
       </c>
       <c r="H36" t="n">
-        <v>13124.28571428571</v>
+        <v>1874.897959183673</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2743,7 +2743,7 @@
         <v>16677.14285714286</v>
       </c>
       <c r="H37" t="n">
-        <v>19456.66666666667</v>
+        <v>2779.52380952381</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2769,7 +2769,7 @@
         <v>5570</v>
       </c>
       <c r="H38" t="n">
-        <v>4774.285714285715</v>
+        <v>795.7142857142857</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2795,7 +2795,7 @@
         <v>13741.66666666667</v>
       </c>
       <c r="H39" t="n">
-        <v>10306.25</v>
+        <v>1717.708333333333</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2821,7 +2821,7 @@
         <v>23390</v>
       </c>
       <c r="H40" t="n">
-        <v>8771.25</v>
+        <v>1461.875</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2847,7 +2847,7 @@
         <v>8528</v>
       </c>
       <c r="H41" t="n">
-        <v>8528</v>
+        <v>1705.6</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2873,7 +2873,7 @@
         <v>27304</v>
       </c>
       <c r="H42" t="n">
-        <v>6205.454545454545</v>
+        <v>1241.090909090909</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2899,7 +2899,7 @@
         <v>22932</v>
       </c>
       <c r="H43" t="n">
-        <v>11466</v>
+        <v>2293.2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2925,7 +2925,7 @@
         <v>22216</v>
       </c>
       <c r="H44" t="n">
-        <v>5846.315789473684</v>
+        <v>1169.263157894737</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2951,7 +2951,7 @@
         <v>5664</v>
       </c>
       <c r="H45" t="n">
-        <v>1573.333333333333</v>
+        <v>314.6666666666667</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2977,7 +2977,7 @@
         <v>25100</v>
       </c>
       <c r="H46" t="n">
-        <v>8964.285714285714</v>
+        <v>1792.857142857143</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3003,7 +3003,7 @@
         <v>10292.5</v>
       </c>
       <c r="H47" t="n">
-        <v>1790</v>
+        <v>447.5</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3029,7 +3029,7 @@
         <v>15860</v>
       </c>
       <c r="H48" t="n">
-        <v>12688</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3055,7 +3055,7 @@
         <v>23265</v>
       </c>
       <c r="H49" t="n">
-        <v>11632.5</v>
+        <v>2908.125</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3081,7 +3081,7 @@
         <v>12910</v>
       </c>
       <c r="H50" t="n">
-        <v>6455</v>
+        <v>1613.75</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3107,7 +3107,7 @@
         <v>19250</v>
       </c>
       <c r="H51" t="n">
-        <v>3347.826086956522</v>
+        <v>836.9565217391304</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3133,7 +3133,7 @@
         <v>12850</v>
       </c>
       <c r="H52" t="n">
-        <v>2753.571428571428</v>
+        <v>917.8571428571429</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3159,7 +3159,7 @@
         <v>13740</v>
       </c>
       <c r="H53" t="n">
-        <v>5888.571428571428</v>
+        <v>1962.857142857143</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3185,7 +3185,7 @@
         <v>25233.33333333333</v>
       </c>
       <c r="H54" t="n">
-        <v>7570</v>
+        <v>2523.333333333333</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3211,7 +3211,7 @@
         <v>8453.333333333334</v>
       </c>
       <c r="H55" t="n">
-        <v>1950.769230769231</v>
+        <v>650.2564102564103</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3237,7 +3237,7 @@
         <v>22720</v>
       </c>
       <c r="H56" t="n">
-        <v>7573.333333333333</v>
+        <v>2524.444444444444</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3263,7 +3263,7 @@
         <v>13780</v>
       </c>
       <c r="H57" t="n">
-        <v>5905.714285714285</v>
+        <v>1968.571428571429</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3289,7 +3289,7 @@
         <v>13000</v>
       </c>
       <c r="H58" t="n">
-        <v>2166.666666666667</v>
+        <v>1083.333333333333</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3315,7 +3315,7 @@
         <v>23290</v>
       </c>
       <c r="H59" t="n">
-        <v>4234.545454545455</v>
+        <v>2117.272727272727</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3341,7 +3341,7 @@
         <v>11020</v>
       </c>
       <c r="H60" t="n">
-        <v>2448.888888888889</v>
+        <v>1224.444444444444</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3367,7 +3367,7 @@
         <v>28750</v>
       </c>
       <c r="H61" t="n">
-        <v>5750</v>
+        <v>2875</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3393,7 +3393,7 @@
         <v>13280</v>
       </c>
       <c r="H62" t="n">
-        <v>2213.333333333333</v>
+        <v>1106.666666666667</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3419,7 +3419,7 @@
         <v>28135</v>
       </c>
       <c r="H63" t="n">
-        <v>7033.75</v>
+        <v>3516.875</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3445,7 +3445,7 @@
         <v>19250</v>
       </c>
       <c r="H64" t="n">
-        <v>4812.5</v>
+        <v>2406.25</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3471,7 +3471,7 @@
         <v>26080</v>
       </c>
       <c r="H65" t="n">
-        <v>2483.809523809524</v>
+        <v>1241.904761904762</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3497,7 +3497,7 @@
         <v>12110</v>
       </c>
       <c r="H66" t="n">
-        <v>4036.666666666667</v>
+        <v>2018.333333333333</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3523,7 +3523,7 @@
         <v>-8495</v>
       </c>
       <c r="H67" t="n">
-        <v>8495</v>
+        <v>4247.5</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3575,7 +3575,7 @@
         <v>25000</v>
       </c>
       <c r="H69" t="n">
-        <v>5000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3627,7 +3627,7 @@
         <v>8860</v>
       </c>
       <c r="H71" t="n">
-        <v>1476.666666666667</v>
+        <v>738.3333333333334</v>
       </c>
     </row>
     <row r="72" spans="1:8">
